--- a/Excel-worksheets/Lecture11_GRU_Gates.xlsx
+++ b/Excel-worksheets/Lecture11_GRU_Gates.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,8 +34,13 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -114,6 +119,12 @@
         <bgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -161,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +654,13 @@
     <col width="7" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] Gated Recurrent Unit (GRU) - simplified variant of LSTM with only 2 gates, fewer parameters but similar performance.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -677,7 +697,6 @@
       <c r="AD2" s="3" t="n"/>
       <c r="AE2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -703,7 +722,6 @@
       <c r="S4" s="3" t="n"/>
       <c r="T4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
@@ -732,8 +750,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -759,7 +775,6 @@
       <c r="S12" s="3" t="n"/>
       <c r="T12" s="4" t="n"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="5" t="inlineStr">
         <is>
@@ -811,8 +826,6 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
@@ -838,7 +851,6 @@
       <c r="S19" s="3" t="n"/>
       <c r="T19" s="4" t="n"/>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="9" t="inlineStr">
         <is>
@@ -858,7 +870,6 @@
       <c r="M21" s="3" t="n"/>
       <c r="N21" s="4" t="n"/>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
@@ -887,8 +898,6 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
-    <row r="28"/>
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
@@ -914,7 +923,6 @@
       <c r="S29" s="3" t="n"/>
       <c r="T29" s="4" t="n"/>
     </row>
-    <row r="30"/>
     <row r="31">
       <c r="D31" s="10" t="inlineStr">
         <is>
@@ -996,7 +1004,6 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
     <row r="35">
       <c r="D35" s="15" t="inlineStr">
         <is>
@@ -1024,8 +1031,6 @@
         </is>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="2" t="inlineStr">
         <is>
@@ -1041,7 +1046,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B19:T19"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="B2:AE2"/>
@@ -1083,7 +1089,13 @@
     <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] GRU parameters: Reset gate, Update gate weights and biases. Simpler than LSTM (no separate cell state).</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -1123,7 +1135,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -1139,7 +1150,6 @@
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="20" t="inlineStr">
         <is>
@@ -1216,8 +1226,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="5" t="inlineStr">
         <is>
@@ -1237,7 +1245,6 @@
       <c r="M12" s="3" t="n"/>
       <c r="N12" s="4" t="n"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="5" t="inlineStr">
         <is>
@@ -1351,7 +1358,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="5" t="inlineStr">
         <is>
@@ -1368,7 +1374,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21"/>
     <row r="22">
       <c r="B22" s="7" t="inlineStr">
         <is>
@@ -1388,7 +1393,6 @@
       <c r="M22" s="3" t="n"/>
       <c r="N22" s="4" t="n"/>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="7" t="inlineStr">
         <is>
@@ -1502,7 +1506,6 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="7" t="inlineStr">
         <is>
@@ -1519,7 +1522,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31"/>
     <row r="32">
       <c r="B32" s="8" t="inlineStr">
         <is>
@@ -1539,7 +1541,6 @@
       <c r="M32" s="3" t="n"/>
       <c r="N32" s="4" t="n"/>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="B34" s="8" t="inlineStr">
         <is>
@@ -1653,7 +1654,6 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="B40" s="8" t="inlineStr">
         <is>
@@ -1670,7 +1670,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41"/>
     <row r="42">
       <c r="B42" s="21" t="inlineStr">
         <is>
@@ -1686,7 +1685,6 @@
       <c r="I42" s="3" t="n"/>
       <c r="J42" s="4" t="n"/>
     </row>
-    <row r="43"/>
     <row r="44">
       <c r="B44" s="22" t="inlineStr">
         <is>
@@ -1712,8 +1710,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B22:N22"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B42:J42"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B12:N12"/>
@@ -1764,7 +1763,13 @@
     <col width="7" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] GRU forward: Reset gate controls how much past to forget, Update gate controls how much new info to add.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="23" t="inlineStr">
         <is>
@@ -1804,7 +1809,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -1830,7 +1834,6 @@
       <c r="S4" s="3" t="n"/>
       <c r="T4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="5" t="inlineStr">
         <is>
@@ -1879,8 +1882,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -1906,7 +1907,6 @@
       <c r="S12" s="3" t="n"/>
       <c r="T12" s="4" t="n"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="19" t="inlineStr">
         <is>
@@ -1942,7 +1942,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="16" t="inlineStr">
         <is>
@@ -1971,7 +1970,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="5" t="inlineStr">
         <is>
@@ -2012,7 +2010,6 @@
         <v/>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="7" t="inlineStr">
         <is>
@@ -2053,7 +2050,6 @@
         <v/>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="B29" s="5" t="inlineStr">
         <is>
@@ -2094,7 +2090,6 @@
         <v/>
       </c>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="B34" s="8" t="inlineStr">
         <is>
@@ -2135,7 +2130,6 @@
         <v/>
       </c>
     </row>
-    <row r="38"/>
     <row r="39">
       <c r="B39" s="9" t="inlineStr">
         <is>
@@ -2188,8 +2182,6 @@
         <v/>
       </c>
     </row>
-    <row r="43"/>
-    <row r="44"/>
     <row r="45">
       <c r="B45" s="9" t="inlineStr">
         <is>
@@ -2206,8 +2198,6 @@
         <v>-0.0401</v>
       </c>
     </row>
-    <row r="46"/>
-    <row r="47"/>
     <row r="48">
       <c r="B48" s="2" t="inlineStr">
         <is>
@@ -2233,7 +2223,6 @@
       <c r="S48" s="3" t="n"/>
       <c r="T48" s="4" t="n"/>
     </row>
-    <row r="49"/>
     <row r="50">
       <c r="B50" s="19" t="inlineStr">
         <is>
@@ -2269,7 +2258,6 @@
         <v>-0.0401</v>
       </c>
     </row>
-    <row r="52"/>
     <row r="53">
       <c r="B53" s="16" t="inlineStr">
         <is>
@@ -2298,7 +2286,6 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="54"/>
     <row r="55">
       <c r="B55" s="5" t="inlineStr">
         <is>
@@ -2339,7 +2326,6 @@
         <v/>
       </c>
     </row>
-    <row r="59"/>
     <row r="60">
       <c r="B60" s="7" t="inlineStr">
         <is>
@@ -2380,7 +2366,6 @@
         <v/>
       </c>
     </row>
-    <row r="64"/>
     <row r="65">
       <c r="B65" s="5" t="inlineStr">
         <is>
@@ -2421,7 +2406,6 @@
         <v/>
       </c>
     </row>
-    <row r="69"/>
     <row r="70">
       <c r="B70" s="8" t="inlineStr">
         <is>
@@ -2462,7 +2446,6 @@
         <v/>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
       <c r="B75" s="9" t="inlineStr">
         <is>
@@ -2515,8 +2498,6 @@
         <v/>
       </c>
     </row>
-    <row r="79"/>
-    <row r="80"/>
     <row r="81">
       <c r="B81" s="9" t="inlineStr">
         <is>
@@ -2533,8 +2514,6 @@
         <v>-0.025</v>
       </c>
     </row>
-    <row r="82"/>
-    <row r="83"/>
     <row r="84">
       <c r="B84" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2539,6 @@
       <c r="S84" s="3" t="n"/>
       <c r="T84" s="4" t="n"/>
     </row>
-    <row r="85"/>
     <row r="86">
       <c r="B86" s="19" t="inlineStr">
         <is>
@@ -2596,7 +2574,6 @@
         <v>-0.025</v>
       </c>
     </row>
-    <row r="88"/>
     <row r="89">
       <c r="B89" s="16" t="inlineStr">
         <is>
@@ -2625,7 +2602,6 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90"/>
     <row r="91">
       <c r="B91" s="5" t="inlineStr">
         <is>
@@ -2666,7 +2642,6 @@
         <v/>
       </c>
     </row>
-    <row r="95"/>
     <row r="96">
       <c r="B96" s="7" t="inlineStr">
         <is>
@@ -2707,7 +2682,6 @@
         <v/>
       </c>
     </row>
-    <row r="100"/>
     <row r="101">
       <c r="B101" s="5" t="inlineStr">
         <is>
@@ -2748,7 +2722,6 @@
         <v/>
       </c>
     </row>
-    <row r="105"/>
     <row r="106">
       <c r="B106" s="8" t="inlineStr">
         <is>
@@ -2789,7 +2762,6 @@
         <v/>
       </c>
     </row>
-    <row r="110"/>
     <row r="111">
       <c r="B111" s="9" t="inlineStr">
         <is>
@@ -2842,8 +2814,6 @@
         <v/>
       </c>
     </row>
-    <row r="115"/>
-    <row r="116"/>
     <row r="117">
       <c r="B117" s="9" t="inlineStr">
         <is>
@@ -2860,8 +2830,6 @@
         <v>0.0146</v>
       </c>
     </row>
-    <row r="118"/>
-    <row r="119"/>
     <row r="120">
       <c r="B120" s="2" t="inlineStr">
         <is>
@@ -2887,7 +2855,6 @@
       <c r="S120" s="3" t="n"/>
       <c r="T120" s="4" t="n"/>
     </row>
-    <row r="121"/>
     <row r="122">
       <c r="B122" s="19" t="inlineStr">
         <is>
@@ -2923,7 +2890,6 @@
         <v>0.0146</v>
       </c>
     </row>
-    <row r="124"/>
     <row r="125">
       <c r="B125" s="16" t="inlineStr">
         <is>
@@ -2952,7 +2918,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126"/>
     <row r="127">
       <c r="B127" s="5" t="inlineStr">
         <is>
@@ -2993,7 +2958,6 @@
         <v/>
       </c>
     </row>
-    <row r="131"/>
     <row r="132">
       <c r="B132" s="7" t="inlineStr">
         <is>
@@ -3034,7 +2998,6 @@
         <v/>
       </c>
     </row>
-    <row r="136"/>
     <row r="137">
       <c r="B137" s="5" t="inlineStr">
         <is>
@@ -3075,7 +3038,6 @@
         <v/>
       </c>
     </row>
-    <row r="141"/>
     <row r="142">
       <c r="B142" s="8" t="inlineStr">
         <is>
@@ -3116,7 +3078,6 @@
         <v/>
       </c>
     </row>
-    <row r="146"/>
     <row r="147">
       <c r="B147" s="9" t="inlineStr">
         <is>
@@ -3169,8 +3130,6 @@
         <v/>
       </c>
     </row>
-    <row r="151"/>
-    <row r="152"/>
     <row r="153">
       <c r="B153" s="9" t="inlineStr">
         <is>
@@ -3187,8 +3146,6 @@
         <v>-0.0021</v>
       </c>
     </row>
-    <row r="154"/>
-    <row r="155"/>
     <row r="156">
       <c r="B156" s="21" t="inlineStr">
         <is>
@@ -3214,7 +3171,6 @@
       <c r="S156" s="3" t="n"/>
       <c r="T156" s="4" t="n"/>
     </row>
-    <row r="157"/>
     <row r="158">
       <c r="B158" s="9" t="inlineStr">
         <is>
@@ -3231,7 +3187,6 @@
         <v>-0.0021</v>
       </c>
     </row>
-    <row r="159"/>
     <row r="160">
       <c r="B160" s="21" t="inlineStr">
         <is>
@@ -3253,7 +3208,6 @@
         </is>
       </c>
     </row>
-    <row r="163"/>
     <row r="164">
       <c r="B164" s="21" t="inlineStr">
         <is>
@@ -3261,7 +3215,6 @@
         </is>
       </c>
     </row>
-    <row r="165"/>
     <row r="166">
       <c r="B166" s="28" t="inlineStr">
         <is>
@@ -3270,8 +3223,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B120:T120"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B84:T84"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B4:T4"/>
@@ -3313,7 +3267,13 @@
     <col width="9" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] Visualize gate activations over time steps to understand what information the GRU retains or forgets.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -3339,7 +3299,6 @@
       <c r="S2" s="3" t="n"/>
       <c r="T2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="5" t="inlineStr">
         <is>
@@ -3359,7 +3318,6 @@
       <c r="M4" s="3" t="n"/>
       <c r="N4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
@@ -3367,7 +3325,6 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
@@ -3503,8 +3460,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="7" t="inlineStr">
         <is>
@@ -3524,7 +3479,6 @@
       <c r="M15" s="3" t="n"/>
       <c r="N15" s="4" t="n"/>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
@@ -3532,7 +3486,6 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
@@ -3668,8 +3621,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
     <row r="26">
       <c r="B26" s="9" t="inlineStr">
         <is>
@@ -3689,7 +3640,6 @@
       <c r="M26" s="3" t="n"/>
       <c r="N26" s="4" t="n"/>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
@@ -3802,11 +3752,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B2:T2"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3847,7 +3798,13 @@
     <col width="8" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] Compare GRU vs LSTM: GRU has fewer parameters and faster training, LSTM may capture longer dependencies.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -3875,7 +3832,6 @@
       <c r="U2" s="3" t="n"/>
       <c r="V2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="16" t="inlineStr"/>
       <c r="E4" s="29" t="inlineStr">
@@ -4097,8 +4053,6 @@
       <c r="N12" s="3" t="n"/>
       <c r="O12" s="4" t="n"/>
     </row>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -4120,7 +4074,6 @@
       <c r="O15" s="3" t="n"/>
       <c r="P15" s="4" t="n"/>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
@@ -4142,7 +4095,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
@@ -4157,7 +4109,6 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
@@ -4186,7 +4137,6 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
@@ -4209,7 +4159,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="B2:V2"/>
     <mergeCell ref="K9:O9"/>
@@ -4221,6 +4171,7 @@
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="K8:O8"/>
@@ -4285,7 +4236,13 @@
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] GRU backpropagation: Compute gradients for reset and update gates, then update all parameters.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="21" t="inlineStr">
         <is>
@@ -4325,7 +4282,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="18" t="inlineStr">
         <is>
@@ -4333,7 +4289,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="21" t="inlineStr">
         <is>
@@ -4370,7 +4325,6 @@
       <c r="AD6" s="3" t="n"/>
       <c r="AE6" s="4" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="31" t="inlineStr">
         <is>
@@ -4378,7 +4332,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="21" t="inlineStr">
         <is>
@@ -4449,7 +4402,6 @@
         <v>0.3999</v>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="16" t="inlineStr">
         <is>
@@ -4466,8 +4418,6 @@
         <v>0.1465</v>
       </c>
     </row>
-    <row r="16"/>
-    <row r="17"/>
     <row r="18">
       <c r="B18" s="9" t="inlineStr">
         <is>
@@ -4504,7 +4454,6 @@
       <c r="AD18" s="3" t="n"/>
       <c r="AE18" s="4" t="n"/>
     </row>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="9" t="inlineStr">
         <is>
@@ -4545,8 +4494,6 @@
         <v/>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
     <row r="26">
       <c r="B26" s="1" t="inlineStr">
         <is>
@@ -4583,7 +4530,6 @@
       <c r="AD26" s="3" t="n"/>
       <c r="AE26" s="4" t="n"/>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="7" t="inlineStr">
         <is>
@@ -4624,7 +4570,6 @@
         <v/>
       </c>
     </row>
-    <row r="32"/>
     <row r="33">
       <c r="B33" s="8" t="inlineStr">
         <is>
@@ -4665,7 +4610,6 @@
         <v/>
       </c>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="5" t="inlineStr">
         <is>
@@ -4706,8 +4650,6 @@
         <v/>
       </c>
     </row>
-    <row r="42"/>
-    <row r="43"/>
     <row r="44">
       <c r="B44" s="1" t="inlineStr">
         <is>
@@ -4744,7 +4686,6 @@
       <c r="AD44" s="3" t="n"/>
       <c r="AE44" s="4" t="n"/>
     </row>
-    <row r="45"/>
     <row r="46">
       <c r="B46" s="24" t="inlineStr">
         <is>
@@ -4766,8 +4707,6 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
-    <row r="50"/>
     <row r="51">
       <c r="B51" s="5" t="inlineStr">
         <is>
@@ -4804,7 +4743,6 @@
       <c r="AD51" s="3" t="n"/>
       <c r="AE51" s="4" t="n"/>
     </row>
-    <row r="52"/>
     <row r="53">
       <c r="B53" s="16" t="inlineStr"/>
       <c r="D53" s="5" t="inlineStr">
@@ -5161,7 +5099,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58"/>
     <row r="59">
       <c r="B59" s="13" t="inlineStr">
         <is>
@@ -5196,8 +5133,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60"/>
-    <row r="61"/>
     <row r="62">
       <c r="B62" s="7" t="inlineStr">
         <is>
@@ -5234,7 +5169,6 @@
       <c r="AD62" s="3" t="n"/>
       <c r="AE62" s="4" t="n"/>
     </row>
-    <row r="63"/>
     <row r="64">
       <c r="B64" s="16" t="inlineStr"/>
       <c r="D64" s="7" t="inlineStr">
@@ -5591,7 +5525,6 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="69"/>
     <row r="70">
       <c r="B70" s="12" t="inlineStr">
         <is>
@@ -5626,8 +5559,6 @@
         <v>-0.0001</v>
       </c>
     </row>
-    <row r="71"/>
-    <row r="72"/>
     <row r="73">
       <c r="B73" s="8" t="inlineStr">
         <is>
@@ -5664,7 +5595,6 @@
       <c r="AD73" s="3" t="n"/>
       <c r="AE73" s="4" t="n"/>
     </row>
-    <row r="74"/>
     <row r="75">
       <c r="B75" s="16" t="inlineStr"/>
       <c r="D75" s="8" t="inlineStr">
@@ -6021,7 +5951,6 @@
         <v>-0.0968</v>
       </c>
     </row>
-    <row r="80"/>
     <row r="81">
       <c r="B81" s="14" t="inlineStr">
         <is>
@@ -6056,8 +5985,6 @@
         <v>0.0105</v>
       </c>
     </row>
-    <row r="82"/>
-    <row r="83"/>
     <row r="84">
       <c r="B84" s="1" t="inlineStr">
         <is>
@@ -6094,7 +6021,6 @@
       <c r="AD84" s="3" t="n"/>
       <c r="AE84" s="4" t="n"/>
     </row>
-    <row r="85"/>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
@@ -6109,7 +6035,6 @@
         </is>
       </c>
     </row>
-    <row r="88"/>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
@@ -6124,7 +6049,6 @@
         </is>
       </c>
     </row>
-    <row r="91"/>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
@@ -6140,25 +6064,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="B18:AE18"/>
     <mergeCell ref="M53:T53"/>
+    <mergeCell ref="B2:AH2"/>
     <mergeCell ref="M64:T64"/>
+    <mergeCell ref="V64:AC64"/>
+    <mergeCell ref="B73:AE73"/>
+    <mergeCell ref="B44:AE44"/>
+    <mergeCell ref="B84:AE84"/>
+    <mergeCell ref="D75:K75"/>
     <mergeCell ref="M75:T75"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="B51:AE51"/>
+    <mergeCell ref="B26:AE26"/>
     <mergeCell ref="V75:AC75"/>
-    <mergeCell ref="V64:AC64"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="B73:AE73"/>
     <mergeCell ref="D64:K64"/>
-    <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="B44:AE44"/>
     <mergeCell ref="V53:AC53"/>
     <mergeCell ref="B62:AE62"/>
-    <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="B51:AE51"/>
-    <mergeCell ref="B84:AE84"/>
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="B26:AE26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6199,7 +6124,13 @@
     <col width="12" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>[Description] Reference solutions for self-checking your calculations.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -6225,7 +6156,6 @@
       <c r="S2" s="3" t="n"/>
       <c r="T2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -6233,7 +6163,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -6269,7 +6198,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -6305,7 +6233,6 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -6341,7 +6268,6 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -6377,7 +6303,6 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="9" t="inlineStr">
         <is>
@@ -6400,7 +6325,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
